--- a/Data/EC/NIT-9008512256.xlsx
+++ b/Data/EC/NIT-9008512256.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA3627CD-5853-40AD-9C32-1D86F5020DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{082FF981-6409-4B85-A8D0-8FCD88A3DBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6492CC1D-2FFD-43E0-8840-374CAD486E14}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B24E4344-0A97-4F55-BE5E-7D0E03D0AF90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,36 +65,51 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45489600</t>
+  </si>
+  <si>
+    <t>SANDRA DE JESUS VARGAS BARRIOS</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>32938139</t>
+  </si>
+  <si>
+    <t>CATHERINE MOSCOTE GELIS</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>45557121</t>
+  </si>
+  <si>
+    <t>INGRID MARIA POLO ALIAN</t>
+  </si>
+  <si>
+    <t>73204142</t>
+  </si>
+  <si>
+    <t>JEFFERSON VIAÑA REYES</t>
+  </si>
+  <si>
     <t>22798615</t>
   </si>
   <si>
     <t>EDITH CORPAS DE AVILA</t>
   </si>
   <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>32938139</t>
-  </si>
-  <si>
-    <t>CATHERINE MOSCOTE GELIS</t>
-  </si>
-  <si>
     <t>1047476121</t>
   </si>
   <si>
     <t>EDGAR DAVID GRÜNEWALD FLOREZ</t>
   </si>
   <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>73204142</t>
-  </si>
-  <si>
-    <t>JEFFERSON VIAÑA REYES</t>
-  </si>
-  <si>
     <t>45553335</t>
   </si>
   <si>
@@ -105,21 +120,6 @@
   </si>
   <si>
     <t>LAURA EUGENIA THERAN VASQUEZ</t>
-  </si>
-  <si>
-    <t>45489600</t>
-  </si>
-  <si>
-    <t>SANDRA DE JESUS VARGAS BARRIOS</t>
-  </si>
-  <si>
-    <t>45557121</t>
-  </si>
-  <si>
-    <t>INGRID MARIA POLO ALIAN</t>
-  </si>
-  <si>
-    <t>1805</t>
   </si>
   <si>
     <t>73182307</t>
@@ -169,7 +169,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A6B24C-53D9-493B-8322-03270CCB3F51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4988B9BE-4ECB-3567-5EEC-AF6D57F93DCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,28 +890,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB6B6F6-D6DD-4404-A84E-5D155B68791D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D16D1D-09D6-435C-963C-ADA3D81FDEC5}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -924,7 +924,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -935,7 +935,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -946,7 +946,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -957,8 +957,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
@@ -973,8 +973,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -989,8 +989,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
@@ -1005,8 +1005,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1068,73 +1068,73 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>7377</v>
+        <v>15624</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>0</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>7377</v>
+        <v>15624</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>0</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" s="18">
-        <v>15885</v>
+        <v>7377</v>
       </c>
       <c r="G18" s="18">
-        <v>794250</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>15624</v>
@@ -1146,18 +1146,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
         <v>15624</v>
@@ -1169,41 +1169,41 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>15885</v>
+        <v>15624</v>
       </c>
       <c r="G21" s="18">
-        <v>794250</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18">
         <v>15624</v>
@@ -1215,64 +1215,64 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="18">
-        <v>15624</v>
+        <v>7377</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>15624</v>
+        <v>15885</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>794250</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>15885</v>
@@ -1284,18 +1284,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>15624</v>
@@ -1307,18 +1307,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>15624</v>
@@ -1330,41 +1330,41 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>15624</v>
+        <v>15885</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>794250</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>15885</v>
@@ -1376,18 +1376,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F30" s="24">
         <v>15624</v>
@@ -1399,7 +1399,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
         <v>39</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
         <v>38</v>
       </c>

--- a/Data/EC/NIT-9008512256.xlsx
+++ b/Data/EC/NIT-9008512256.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{082FF981-6409-4B85-A8D0-8FCD88A3DBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFE68FC-DDC2-484A-A6D3-1CCEC9373C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B24E4344-0A97-4F55-BE5E-7D0E03D0AF90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1BCD5B2-1ED5-4CE2-8DE0-0236A6769A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,61 +65,61 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32938139</t>
+  </si>
+  <si>
+    <t>CATHERINE MOSCOTE GELIS</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>22798615</t>
+  </si>
+  <si>
+    <t>EDITH CORPAS DE AVILA</t>
+  </si>
+  <si>
     <t>45489600</t>
   </si>
   <si>
     <t>SANDRA DE JESUS VARGAS BARRIOS</t>
   </si>
   <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>45557121</t>
+  </si>
+  <si>
+    <t>INGRID MARIA POLO ALIAN</t>
+  </si>
+  <si>
+    <t>73204142</t>
+  </si>
+  <si>
+    <t>JEFFERSON VIAÑA REYES</t>
+  </si>
+  <si>
+    <t>1047476121</t>
+  </si>
+  <si>
+    <t>EDGAR DAVID GRÜNEWALD FLOREZ</t>
+  </si>
+  <si>
+    <t>45553335</t>
+  </si>
+  <si>
+    <t>LORENA PATRICIA RIPOLL FIGUEROA</t>
+  </si>
+  <si>
+    <t>1047464421</t>
+  </si>
+  <si>
+    <t>LAURA EUGENIA THERAN VASQUEZ</t>
+  </si>
+  <si>
     <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>32938139</t>
-  </si>
-  <si>
-    <t>CATHERINE MOSCOTE GELIS</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>45557121</t>
-  </si>
-  <si>
-    <t>INGRID MARIA POLO ALIAN</t>
-  </si>
-  <si>
-    <t>73204142</t>
-  </si>
-  <si>
-    <t>JEFFERSON VIAÑA REYES</t>
-  </si>
-  <si>
-    <t>22798615</t>
-  </si>
-  <si>
-    <t>EDITH CORPAS DE AVILA</t>
-  </si>
-  <si>
-    <t>1047476121</t>
-  </si>
-  <si>
-    <t>EDGAR DAVID GRÜNEWALD FLOREZ</t>
-  </si>
-  <si>
-    <t>45553335</t>
-  </si>
-  <si>
-    <t>LORENA PATRICIA RIPOLL FIGUEROA</t>
-  </si>
-  <si>
-    <t>1047464421</t>
-  </si>
-  <si>
-    <t>LAURA EUGENIA THERAN VASQUEZ</t>
   </si>
   <si>
     <t>73182307</t>
@@ -224,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -237,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -439,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4988B9BE-4ECB-3567-5EEC-AF6D57F93DCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E561411C-F5E3-6FFF-112E-7D88BCE72EA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D16D1D-09D6-435C-963C-ADA3D81FDEC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FD4187-762F-490B-95F4-3474292252C3}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>15624</v>
+        <v>7377</v>
       </c>
       <c r="G16" s="18">
-        <v>0</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1082,19 +1082,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>15624</v>
+        <v>7377</v>
       </c>
       <c r="G17" s="18">
-        <v>0</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,16 +1105,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>7377</v>
+        <v>15624</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1128,13 +1128,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>15624</v>
@@ -1151,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F20" s="18">
         <v>15624</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1174,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>15624</v>
+        <v>15885</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>15624</v>
@@ -1220,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>7377</v>
+        <v>15885</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>750000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
-        <v>15885</v>
+        <v>15624</v>
       </c>
       <c r="G24" s="18">
-        <v>794250</v>
+        <v>737717</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1266,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
-        <v>15885</v>
+        <v>15624</v>
       </c>
       <c r="G25" s="18">
-        <v>794250</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1289,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
         <v>15624</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1312,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>15624</v>
+        <v>15885</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>750000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1335,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F28" s="18">
-        <v>15885</v>
+        <v>15624</v>
       </c>
       <c r="G28" s="18">
-        <v>794250</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1358,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>15885</v>
       </c>
       <c r="G29" s="18">
-        <v>794250</v>
+        <v>750000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1387,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F30" s="24">
         <v>15624</v>

--- a/Data/EC/NIT-9008512256.xlsx
+++ b/Data/EC/NIT-9008512256.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFE68FC-DDC2-484A-A6D3-1CCEC9373C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCBCA17-E78C-46F5-BA47-22E92935AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D1BCD5B2-1ED5-4CE2-8DE0-0236A6769A20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A9932D67-B8CC-4609-AA07-2C40BAC6C6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -239,7 +237,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,29 +433,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,19 +474,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E561411C-F5E3-6FFF-112E-7D88BCE72EA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEE1DFA-8E96-7CBB-3836-F3229104ADE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FD4187-762F-490B-95F4-3474292252C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411ED2D7-98CB-4A10-B52A-6644D89C138A}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -913,49 +919,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -963,7 +969,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -979,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008512256</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>218910</v>
       </c>
@@ -1064,18 +1070,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>7377</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>737717</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1087,18 +1093,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>7377</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>737717</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1110,18 +1116,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>15624</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>737717</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1133,18 +1139,18 @@
       <c r="D19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>15624</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>781242</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1156,18 +1162,18 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>15624</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>737717</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1179,18 +1185,18 @@
       <c r="D21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>15885</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>750000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1202,18 +1208,18 @@
       <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>15624</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>781242</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1225,18 +1231,18 @@
       <c r="D23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>15885</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>750000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1248,18 +1254,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>15624</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>737717</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1271,18 +1277,18 @@
       <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>15624</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>781242</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1294,18 +1300,18 @@
       <c r="D26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>15624</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>737717</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1317,18 +1323,18 @@
       <c r="D27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>15885</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>750000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1340,18 +1346,18 @@
       <c r="D28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>15624</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>781242</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1363,47 +1369,47 @@
       <c r="D29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>15885</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>750000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="26">
         <v>15624</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="26">
         <v>781242</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1411,10 +1417,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>40</v>
       </c>
